--- a/doc/物联网平台 - 分析0731.xlsx
+++ b/doc/物联网平台 - 分析0731.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuhuazhen\智慧路灯项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhuhuazhen\test1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="279">
   <si>
     <t>包括设备的基本信息，厂商信息</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>数据1</t>
-  </si>
-  <si>
-    <t>{objectName：热点1，timestamp:5698123456,conNum:100,uslen:1,ulenUnite:小时}</t>
   </si>
   <si>
     <t>数据模型</t>
@@ -896,23 +893,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amespace1</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1100,10 +1080,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>主题管理</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>应增加是否有效、创建人，修改人，创建修改时间字段</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1179,26 +1155,14 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>盒子设备接入开发：服务上线和下线</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>盒子设备接入开发：设备登录、上线、下线</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>盒子设备接入开发：下发请求发布</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>盒子设备接入开发：下发请求返回订阅</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>流程未设计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>流程已定义，可以介入开发</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1212,14 +1176,6 @@
   </si>
   <si>
     <t>物联网平台功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程未设计，接口规格待最终定义</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程未设计，接口规格待最终定义</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1286,19 +1242,189 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>接口规格定义</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>待处理</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>待处理</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理</t>
+    <t>流程已设计，接口规格待刘工最终调整确定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13，</t>
+  </si>
+  <si>
+    <t>摄像头接入场景分析</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据协议转化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上报数据通过打标签的方式，做丰富处理，如组织、区域、甚至数据范围角色等，这里是可扩展的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上报：上报到应用平台的数据做丰富处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度情况</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程已设计，接口规格待刘工最终调整确定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>看序列图</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待分析</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本视图已输出请参考视图做开发设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14，</t>
+  </si>
+  <si>
+    <t>15，</t>
+  </si>
+  <si>
+    <t>16，</t>
+  </si>
+  <si>
+    <t>接口规格定义已输出，待刘工最终调整确定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头场景待分析</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子设备接入开发：下发请求发布</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装下发请求通道</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装下发请求返回订阅通道</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子设备接入开发：服务上线和下线</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程已设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备映射表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本视图已输出请参考视图做开发，见.设备管理-设备注册、建模、主题管理设计项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入的数据做结构转化，然后输出到KAFKA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号数据表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间序列状态数据表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>17，</t>
+  </si>
+  <si>
+    <t>18，</t>
+  </si>
+  <si>
+    <t>19，</t>
+  </si>
+  <si>
+    <t>数据上报：信号数据上报（和应用平台交互）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体流程中已体现，请和SE沟通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体流程中已体现，请和SE沟通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录和权限模块</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用应用平台的微服务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>20，</t>
+  </si>
+  <si>
+    <t>可开发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{objectName：热点1，timestamp:5698123456,conNum:100,uslen:1,ulenUnite:小时}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上报：状态数据上报（和应用平台交互）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上报：设备属性数据上报（和应用平台交互）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,   根据13，16的输出做处理
+2，保存时间序列数据到mongo库
+3，调用设备管理模块-设备建模-更新设备映射属性服务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，应用平台需要提供接口接收数据
+2,   根据10，16的输出做处理
+3，保存时间序列数据到mongo库</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，应用平台需要提供接口接收数据
+2,   根据11，16的输出数据，更新设备映射表属性
+3，保存数据到mongo库</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1306,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,8 +1546,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1467,6 +1601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,9 +1777,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1655,6 +1792,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,8 +1882,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2446,7 +2616,7 @@
   <dimension ref="C1:Z49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P14:P15"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2463,14 +2633,14 @@
     <row r="1" spans="3:19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C2" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2478,144 +2648,144 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="30"/>
+      <c r="M4" s="40"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="40"/>
+      <c r="O5" t="s">
         <v>7</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="O5" t="s">
-        <v>8</v>
       </c>
       <c r="R5" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M6" s="40"/>
+      <c r="S6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="M6" s="30"/>
-      <c r="S6" s="13" t="s">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M7" s="40"/>
+      <c r="S7" s="13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="M7" s="30"/>
-      <c r="S7" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="S8" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="M8" s="30"/>
-      <c r="S8" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="M9" s="40"/>
+      <c r="S9" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="S9" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="30"/>
+        <v>102</v>
+      </c>
+      <c r="M11" s="40"/>
       <c r="R11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="S12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="S12" s="13" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="M13" s="30"/>
+      <c r="M13" s="40"/>
       <c r="S13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.2">
       <c r="S15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="18:26" x14ac:dyDescent="0.2">
       <c r="R21" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="18:26" x14ac:dyDescent="0.2">
       <c r="S22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" t="s">
         <v>26</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>27</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="18:26" x14ac:dyDescent="0.2">
       <c r="S24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="18:26" x14ac:dyDescent="0.2">
       <c r="T25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25">
         <v>6000</v>
@@ -2623,7 +2793,7 @@
     </row>
     <row r="26" spans="18:26" x14ac:dyDescent="0.2">
       <c r="T26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U26">
         <v>10000</v>
@@ -2631,52 +2801,52 @@
     </row>
     <row r="27" spans="18:26" x14ac:dyDescent="0.2">
       <c r="W27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="18:26" x14ac:dyDescent="0.2">
       <c r="W28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="18:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="18:26" x14ac:dyDescent="0.2">
       <c r="S30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="18:26" x14ac:dyDescent="0.2">
       <c r="T31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="18:26" x14ac:dyDescent="0.2">
       <c r="T32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="20:26" x14ac:dyDescent="0.2">
       <c r="T33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="20:26" x14ac:dyDescent="0.2">
       <c r="T34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="20:26" x14ac:dyDescent="0.2">
       <c r="Z39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O49" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2705,58 +2875,58 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="M2" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C3" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2780,10 +2950,10 @@
   <sheetData>
     <row r="8" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.2">
@@ -2791,7 +2961,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.2">
@@ -2799,10 +2969,10 @@
         <v>0.41736111111111102</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.2">
@@ -2810,16 +2980,16 @@
         <v>0.41805555555555601</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
         <v>46</v>
       </c>
-      <c r="P11" t="s">
-        <v>47</v>
-      </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.2">
@@ -2827,13 +2997,13 @@
         <v>0.41875000000000001</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
         <v>48</v>
       </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:20" x14ac:dyDescent="0.2">
@@ -2841,7 +3011,7 @@
         <v>0.41944444444444401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2851,13 +3021,13 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
         <v>51</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>52</v>
-      </c>
-      <c r="T13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="4:20" x14ac:dyDescent="0.2">
@@ -2865,81 +3035,81 @@
         <v>0.42013888888888901</v>
       </c>
       <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" t="s">
         <v>54</v>
       </c>
-      <c r="S14" t="s">
-        <v>55</v>
-      </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="4:20" x14ac:dyDescent="0.2">
       <c r="S15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.2">
       <c r="S16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="S17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="S18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="P20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" t="s">
         <v>60</v>
-      </c>
-      <c r="R20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="R21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="4:32" x14ac:dyDescent="0.2">
       <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" t="s">
         <v>51</v>
-      </c>
-      <c r="S22" t="s">
-        <v>52</v>
       </c>
       <c r="T22">
         <v>85</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W22" s="6">
         <v>0.41944444444444401</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -2949,12 +3119,12 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="4:32" x14ac:dyDescent="0.2">
       <c r="S23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T23">
         <v>100</v>
@@ -2965,16 +3135,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="4:32" x14ac:dyDescent="0.2">
@@ -2982,13 +3152,13 @@
         <v>0.41736111111111102</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="4:32" x14ac:dyDescent="0.2">
@@ -2996,19 +3166,19 @@
         <v>0.41805555555555601</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" t="s">
         <v>51</v>
-      </c>
-      <c r="S29" t="s">
-        <v>52</v>
       </c>
       <c r="T29">
         <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="4:32" x14ac:dyDescent="0.2">
@@ -3016,10 +3186,10 @@
         <v>0.41875000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T30">
         <v>100</v>
@@ -3030,7 +3200,7 @@
         <v>0.41944444444444401</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -3040,13 +3210,13 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" t="s">
         <v>66</v>
-      </c>
-      <c r="R31" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="4:32" x14ac:dyDescent="0.2">
@@ -3054,7 +3224,7 @@
         <v>0.42013888888888901</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -3064,7 +3234,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.2">
@@ -3072,7 +3242,7 @@
         <v>0.420833333333333</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -3082,10 +3252,10 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" t="s">
+        <v>69</v>
+      </c>
+      <c r="V33" t="s">
         <v>70</v>
-      </c>
-      <c r="V33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
@@ -3093,7 +3263,7 @@
         <v>0.421527777777778</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -3103,7 +3273,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.2">
@@ -3111,7 +3281,7 @@
         <v>0.422222222222222</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -3121,7 +3291,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.2">
@@ -3129,10 +3299,10 @@
         <v>0.422916666666667</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.2">
@@ -3140,7 +3310,7 @@
         <v>0.42361111111111099</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3164,139 +3334,139 @@
   <sheetData>
     <row r="3" spans="2:20" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
         <v>77</v>
-      </c>
-      <c r="N4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" t="s">
         <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="3" t="s">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="2:18" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="R20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="2:18" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="R20" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3324,33 +3494,33 @@
   <sheetData>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3361,200 +3531,349 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G23"/>
+  <dimension ref="C2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="55.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="14"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="14" t="s">
+    <row r="11" spans="3:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D22" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C25" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="3:7" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C28" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C14" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="34" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>243</v>
-      </c>
+    <row r="29" spans="3:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C30" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3567,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3592,47 +3911,47 @@
     <row r="4" spans="2:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" t="s">
         <v>126</v>
       </c>
-      <c r="L5" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="6" spans="2:21" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>211</v>
+        <v>127</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
@@ -3646,7 +3965,7 @@
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -3660,7 +3979,7 @@
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
@@ -3678,8 +3997,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="25" t="s">
-        <v>147</v>
+      <c r="I10" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="J10" s="10"/>
     </row>
@@ -3688,7 +4007,7 @@
     </row>
     <row r="13" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U13" s="13"/>
     </row>
@@ -3706,14 +4025,14 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E15" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -3721,17 +4040,17 @@
       <c r="L15" s="16"/>
       <c r="M15" s="11"/>
       <c r="O15" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -3743,10 +4062,10 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -3757,11 +4076,11 @@
     <row r="18" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>173</v>
+      <c r="G18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -3774,44 +4093,44 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>139</v>
-      </c>
       <c r="O19" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="5:21" x14ac:dyDescent="0.2">
@@ -3819,20 +4138,20 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U21" s="14"/>
     </row>
@@ -3851,7 +4170,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3865,18 +4184,18 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="5:21" x14ac:dyDescent="0.2">
@@ -3884,20 +4203,20 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.2">
@@ -3926,7 +4245,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -3940,18 +4259,18 @@
       <c r="F29" s="11"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="5:21" x14ac:dyDescent="0.2">
@@ -3959,19 +4278,19 @@
       <c r="F30" s="11"/>
       <c r="G30" s="16"/>
       <c r="H30" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M30" s="17"/>
       <c r="O30" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.2">
@@ -3979,23 +4298,23 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="5:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="25" t="s">
-        <v>152</v>
+      <c r="G32" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -4015,7 +4334,7 @@
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D38" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -4026,7 +4345,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E39" s="11"/>
@@ -4038,99 +4357,99 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N39" s="27"/>
+        <v>143</v>
+      </c>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K40" s="16"/>
-      <c r="L40" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="M40" s="34"/>
-      <c r="N40" s="28" t="s">
-        <v>154</v>
+      <c r="L40" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="N40" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="4:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" s="55"/>
+      <c r="N41" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="M41" s="45"/>
-      <c r="N41" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="4:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="23" t="s">
+      <c r="I42" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="38" t="s">
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="46" t="s">
+      <c r="M42" s="57"/>
+      <c r="N42" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
@@ -4138,11 +4457,11 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
@@ -4170,8 +4489,8 @@
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="25" t="s">
-        <v>151</v>
+      <c r="G46" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
